--- a/biology/Zoologie/Cyrtoneritida/Cyrtoneritida.xlsx
+++ b/biology/Zoologie/Cyrtoneritida/Cyrtoneritida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyrtoneritimorpha
 Cyrtoneritida est un ordre fossile de mollusques. Plus précisément ils font partie de la classe des gastéropodes et de la sous-classe des Neritimorpha
@@ -512,13 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ordre des Cyrtoneritida est décrit en 1999 par Bandel et Frýda sous le protonyme Cyrtoneritimorpha[1],[2].
-Renommage
-Cet ordre est renommé Cyrtoneritida en 2017 par Bouchet et al.[2].
-Périodes
-Ils ont vécu durant la deuxième partie de l'ère Paléozoïque durant les (périodes du Dévonien, Carbonifère et du Permien), il y a environ entre 420 à 252 Ma (millions d'années). 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des Cyrtoneritida est décrit en 1999 par Bandel et Frýda sous le protonyme Cyrtoneritimorpha,.
 </t>
         </is>
       </c>
@@ -544,10 +554,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Renommage</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet ordre est renommé Cyrtoneritida en 2017 par Bouchet et al..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cyrtoneritida</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyrtoneritida</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Périodes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils ont vécu durant la deuxième partie de l'ère Paléozoïque durant les (périodes du Dévonien, Carbonifère et du Permien), il y a environ entre 420 à 252 Ma (millions d'années). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cyrtoneritida</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyrtoneritida</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet ordre contient deux familles éteintes : les Orthonychiidae et les Vltaviellidae.
 </t>
